--- a/data/trans_camb/P23_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P23_R-Dificultad-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.528997009970184</v>
+        <v>-2.426880273971148</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.919962938331825</v>
+        <v>-6.61460803730524</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.848504689848051</v>
+        <v>3.696953669104497</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.769495679649616</v>
+        <v>3.597506420737092</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.078980835248748</v>
+        <v>4.05453884039183</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.277268897644773</v>
+        <v>2.209406275562327</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.107020205692175</v>
+        <v>8.03341870685486</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.781713794551312</v>
+        <v>3.858105047507081</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.97030195917378</v>
+        <v>11.75565776086592</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.77421013755061</v>
+        <v>11.33739955108191</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>10.59196773607032</v>
+        <v>10.57212765258573</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>8.596917235455384</v>
+        <v>8.369534712094545</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.05269416599792268</v>
+        <v>-0.05224760098056819</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1227163440988604</v>
+        <v>-0.1374674687063196</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1467652689164467</v>
+        <v>0.1404789736701872</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1424939444969994</v>
+        <v>0.1360659596435286</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1192183069035625</v>
+        <v>0.1207087612800628</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06334778569760949</v>
+        <v>0.06372857294950225</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.193964570100198</v>
+        <v>0.1965189735885601</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.09607047243095786</v>
+        <v>0.09208632661140756</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5593569089540934</v>
+        <v>0.5281430138021894</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5366389314673135</v>
+        <v>0.5169654030886021</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3490059599400918</v>
+        <v>0.3541482791716043</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2790532443931936</v>
+        <v>0.2763527544535214</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.819350319138849</v>
+        <v>-8.727104585013661</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-14.16836220189599</v>
+        <v>-14.02547007634338</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.173863226176987</v>
+        <v>-3.412809330925431</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.014013263069301</v>
+        <v>-3.759926204217363</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.323493618147675</v>
+        <v>-5.187068778104294</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-8.342872093482896</v>
+        <v>-8.135201941567423</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6357560014154309</v>
+        <v>0.298259647470943</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-5.178440766243318</v>
+        <v>-5.108158867371825</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.331996035136509</v>
+        <v>4.048612898781351</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.341914232233153</v>
+        <v>3.907945650871567</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9739634563301375</v>
+        <v>0.2623074616654735</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-2.283231668026132</v>
+        <v>-2.160214586732627</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1838556260250031</v>
+        <v>-0.1801601474390674</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2904775332915504</v>
+        <v>-0.2964997385833429</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1140961212815974</v>
+        <v>-0.1192384584525162</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1417723234950279</v>
+        <v>-0.1368790253372631</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1425816451607015</v>
+        <v>-0.1378627561701375</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2237815158166275</v>
+        <v>-0.2166692515427507</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.01500017217481309</v>
+        <v>0.007097597650792685</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1181858991658406</v>
+        <v>-0.1162875696303809</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.178943802904672</v>
+        <v>0.1646066146416387</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1328940364053799</v>
+        <v>0.1652907450535846</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.02752191312469227</v>
+        <v>0.005837488758031114</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.06498001236644242</v>
+        <v>-0.06220443187580639</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-12.64862595882144</v>
+        <v>-12.87151469261941</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-17.33979874784206</v>
+        <v>-17.77207104761252</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.668386123971123</v>
+        <v>-4.160128295024843</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-7.482661281124886</v>
+        <v>-7.613457663097545</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-7.569405312949396</v>
+        <v>-7.574532266550643</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-11.57278719368983</v>
+        <v>-11.70847852383427</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-3.929423768156814</v>
+        <v>-4.143109334422097</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-8.727262313804484</v>
+        <v>-8.82874519740351</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.380864552645851</v>
+        <v>3.901825968185892</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1237503630447304</v>
+        <v>0.5531352382318937</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-1.532832775195911</v>
+        <v>-1.34068113023278</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-5.645838697448373</v>
+        <v>-5.708966691000077</v>
       </c>
     </row>
     <row r="19">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2992274920739352</v>
+        <v>-0.301506649358691</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4134684194887739</v>
+        <v>-0.4172822204825335</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1397765360307631</v>
+        <v>-0.1605404501671022</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2806317651013597</v>
+        <v>-0.287630568172512</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2201097571883137</v>
+        <v>-0.2228546885479497</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3371639535328371</v>
+        <v>-0.3369212957770654</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.102769030650319</v>
+        <v>-0.1055760646825992</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.2270895619999094</v>
+        <v>-0.2269312886051302</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1912438165522049</v>
+        <v>0.1704416699572238</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.005277148549898281</v>
+        <v>0.0231014320842318</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.04953538626787485</v>
+        <v>-0.04624233222053533</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1763869924920867</v>
+        <v>-0.174106852321287</v>
       </c>
     </row>
     <row r="22">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-10.58618739145043</v>
+        <v>-10.64921219629592</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-16.27389389750451</v>
+        <v>-16.3911683422152</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-12.48880714024627</v>
+        <v>-12.45096703402765</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-15.9241042200246</v>
+        <v>-15.88185942997069</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-10.31017611013968</v>
+        <v>-10.28032893122562</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-14.91069545197925</v>
+        <v>-14.7559557288615</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.333972295405894</v>
+        <v>2.041537903603968</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-4.167898606139874</v>
+        <v>-4.152442892395124</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1088733552258598</v>
+        <v>0.6378522107670793</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-3.872338070891937</v>
+        <v>-4.065403837586254</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-1.077996523740436</v>
+        <v>-1.38515006826723</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-6.443512627924665</v>
+        <v>-6.015406563111771</v>
       </c>
     </row>
     <row r="25">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2715433096738182</v>
+        <v>-0.2650706764568266</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4099072589850285</v>
+        <v>-0.4142006517734515</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3808372202547342</v>
+        <v>-0.3817255763914808</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4884193414879512</v>
+        <v>-0.4912155449227473</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2906825575758692</v>
+        <v>-0.282796113380093</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4203061994733068</v>
+        <v>-0.4193788685771405</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.07244775293205391</v>
+        <v>0.06336041527122591</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1290035633394483</v>
+        <v>-0.1225211350942144</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.00874204538397351</v>
+        <v>0.03070618475089667</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.1583680773834026</v>
+        <v>-0.1641561757321868</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.03379837385607232</v>
+        <v>-0.04249632712172991</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.2043006358544611</v>
+        <v>-0.1971249272268725</v>
       </c>
     </row>
     <row r="28">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.479623121278119</v>
+        <v>-5.555377772145839</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-9.635086893420006</v>
+        <v>-9.691453256991615</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.393029024013568</v>
+        <v>-0.3371169908107258</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.608517768899851</v>
+        <v>-1.688809201438906</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.051483802067258</v>
+        <v>-2.21330057159831</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-5.087925455862654</v>
+        <v>-5.022212730680464</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.4313024954163355</v>
+        <v>-0.6463044735416421</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-5.069376539670119</v>
+        <v>-4.946534745595185</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.176115670849009</v>
+        <v>4.197410641958591</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.619318092864779</v>
+        <v>2.670250610635551</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.233333447647857</v>
+        <v>1.136087932421489</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-1.804875865933576</v>
+        <v>-1.685152271863704</v>
       </c>
     </row>
     <row r="31">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1256725524179013</v>
+        <v>-0.1263887269582705</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2224866214170056</v>
+        <v>-0.2218443049699072</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.01231854157220413</v>
+        <v>-0.01281229089257387</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.05993661199035308</v>
+        <v>-0.06351930727178025</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.05911653012117486</v>
+        <v>-0.06249465638329006</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1463665481281766</v>
+        <v>-0.1453196127855529</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.009919940534245353</v>
+        <v>-0.0149837225251079</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1245749841650077</v>
+        <v>-0.1186011040182799</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1721271583114891</v>
+        <v>0.1722313277749819</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1079515847756412</v>
+        <v>0.10760858316868</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.03779014353206162</v>
+        <v>0.03443604256118108</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.05404178628370308</v>
+        <v>-0.05088590944562012</v>
       </c>
     </row>
     <row r="34">
